--- a/docs/odh/shr-core-StudyArm-model.xlsx
+++ b/docs/odh/shr-core-StudyArm-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Arm refers to pre-specified group or subgroup of participant(s) in a clinical trial assigned to receive specific intervention(s) (or no intervention) according to a protocol.</t>
   </si>
   <si>
-    <t>shr-core-StudyArm-model.title</t>
+    <t>shr-core-StudyArm-model.name</t>
   </si>
   <si>
     <t>1</t>
@@ -147,7 +147,7 @@
 </t>
   </si>
   <si>
-    <t>A distinguishing word or group of words naming an item.</t>
+    <t>The name as plain unstructured or semi-structured text.</t>
   </si>
   <si>
     <t>shr-core-StudyArm-model.type</t>
@@ -163,7 +163,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/StudyArmTypeVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-StudyArmTypeVS</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
@@ -174,10 +174,6 @@
   </si>
   <si>
     <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0947611
-</t>
   </si>
 </sst>
 </file>
@@ -326,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -359,7 +355,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.95703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.65234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -833,7 +829,7 @@
         <v>36</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
